--- a/planilhas/CCB.xlsx
+++ b/planilhas/CCB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042AFB6-B5A1-493F-957F-B7850EB2C5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="600" windowWidth="12156" windowHeight="9996"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -3427,9 +3433,6 @@
     <t xml:space="preserve">Sem informação </t>
   </si>
   <si>
-    <t>Aparelho Gela?</t>
-  </si>
-  <si>
     <t>Observações complementares.</t>
   </si>
   <si>
@@ -3467,12 +3470,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rheem </t>
+  </si>
+  <si>
+    <t>Aparelho gela?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3608,9 +3614,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3618,7 +3624,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3634,7 +3640,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3647,13 +3653,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3678,13 +3684,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3694,8 +3697,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3709,6 +3712,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3911,44 +3917,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="57.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="68" style="16" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" style="16" customWidth="1"/>
-    <col min="16" max="27" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="16" customWidth="1"/>
+    <col min="16" max="27" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="34" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:18" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1115</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="22" t="s">
@@ -3976,28 +3982,28 @@
         <v>4</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>1136</v>
       </c>
-      <c r="O1" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -4042,7 +4048,7 @@
       </c>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -4087,7 +4093,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -4132,7 +4138,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -4177,7 +4183,7 @@
       </c>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -4222,7 +4228,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -4267,7 +4273,7 @@
       </c>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -4312,7 +4318,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -4358,7 +4364,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -4403,7 +4409,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -4449,7 +4455,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -4494,7 +4500,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -4539,7 +4545,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -4584,7 +4590,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -4630,7 +4636,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -4676,7 +4682,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4721,7 +4727,7 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -4812,7 +4818,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -4903,7 +4909,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -4948,7 +4954,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -4994,7 +5000,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>23</v>
       </c>
@@ -5039,7 +5045,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -5085,7 +5091,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>25</v>
       </c>
@@ -5131,7 +5137,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -5177,7 +5183,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>27</v>
       </c>
@@ -5223,7 +5229,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -5269,7 +5275,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>29</v>
       </c>
@@ -5314,7 +5320,7 @@
       </c>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -5360,7 +5366,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>31</v>
       </c>
@@ -5405,7 +5411,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>32</v>
       </c>
@@ -5450,7 +5456,7 @@
       </c>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>33</v>
       </c>
@@ -5495,7 +5501,7 @@
       </c>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>34</v>
       </c>
@@ -5540,7 +5546,7 @@
       </c>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>35</v>
       </c>
@@ -5585,7 +5591,7 @@
       </c>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>36</v>
       </c>
@@ -5630,7 +5636,7 @@
       </c>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>37</v>
       </c>
@@ -5675,7 +5681,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>38</v>
       </c>
@@ -5720,7 +5726,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>39</v>
       </c>
@@ -5765,7 +5771,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>40</v>
       </c>
@@ -5810,7 +5816,7 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>41</v>
       </c>
@@ -5855,7 +5861,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>42</v>
       </c>
@@ -5900,7 +5906,7 @@
       </c>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>43</v>
       </c>
@@ -5945,7 +5951,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>44</v>
       </c>
@@ -5990,7 +5996,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>45</v>
       </c>
@@ -6035,7 +6041,7 @@
       </c>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>46</v>
       </c>
@@ -6080,7 +6086,7 @@
       </c>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -6125,7 +6131,7 @@
       </c>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>48</v>
       </c>
@@ -6170,7 +6176,7 @@
       </c>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -6215,7 +6221,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>50</v>
       </c>
@@ -6260,7 +6266,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -6305,7 +6311,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>52</v>
       </c>
@@ -6350,7 +6356,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>53</v>
       </c>
@@ -6395,7 +6401,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>54</v>
       </c>
@@ -6440,7 +6446,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -6497,7 +6503,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>56</v>
       </c>
@@ -6554,7 +6560,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>57</v>
       </c>
@@ -6599,7 +6605,7 @@
       </c>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>58</v>
       </c>
@@ -6644,7 +6650,7 @@
       </c>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>59</v>
       </c>
@@ -6692,7 +6698,7 @@
       </c>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>60</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>61</v>
       </c>
@@ -6784,7 +6790,7 @@
       </c>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>62</v>
       </c>
@@ -6829,7 +6835,7 @@
       </c>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>63</v>
       </c>
@@ -6874,7 +6880,7 @@
       </c>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>64</v>
       </c>
@@ -6919,7 +6925,7 @@
       </c>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>65</v>
       </c>
@@ -6964,7 +6970,7 @@
       </c>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>66</v>
       </c>
@@ -7010,7 +7016,7 @@
       <c r="O67" s="18"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>67</v>
       </c>
@@ -7056,7 +7062,7 @@
       <c r="O68" s="18"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>68</v>
       </c>
@@ -7102,7 +7108,7 @@
       <c r="O69" s="18"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>69</v>
       </c>
@@ -7148,7 +7154,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>70</v>
       </c>
@@ -7194,7 +7200,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>71</v>
       </c>
@@ -7240,7 +7246,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>72</v>
       </c>
@@ -7285,7 +7291,7 @@
       </c>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>73</v>
       </c>
@@ -7330,7 +7336,7 @@
       </c>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>74</v>
       </c>
@@ -7375,7 +7381,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>75</v>
       </c>
@@ -7420,7 +7426,7 @@
       </c>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>76</v>
       </c>
@@ -7465,7 +7471,7 @@
       </c>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
         <v>77</v>
       </c>
@@ -7510,7 +7516,7 @@
       </c>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="27">
         <v>78</v>
       </c>
@@ -7555,7 +7561,7 @@
       </c>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="27">
         <v>79</v>
       </c>
@@ -7600,7 +7606,7 @@
       </c>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="27">
         <v>80</v>
       </c>
@@ -7645,7 +7651,7 @@
       </c>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="27">
         <v>81</v>
       </c>
@@ -7690,7 +7696,7 @@
       </c>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>82</v>
       </c>
@@ -7735,7 +7741,7 @@
       </c>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>83</v>
       </c>
@@ -7780,7 +7786,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>84</v>
       </c>
@@ -7825,7 +7831,7 @@
       </c>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="27">
         <v>85</v>
       </c>
@@ -7870,7 +7876,7 @@
       </c>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
         <v>86</v>
       </c>
@@ -7915,7 +7921,7 @@
       </c>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="27">
         <v>87</v>
       </c>
@@ -7960,7 +7966,7 @@
       </c>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="27">
         <v>88</v>
       </c>
@@ -8005,7 +8011,7 @@
       </c>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
         <v>89</v>
       </c>
@@ -8050,7 +8056,7 @@
       </c>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="27">
         <v>90</v>
       </c>
@@ -8060,7 +8066,7 @@
       <c r="C91" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="31" t="s">
         <v>869</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -8097,7 +8103,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="27">
         <v>91</v>
       </c>
@@ -8142,7 +8148,7 @@
       </c>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>92</v>
       </c>
@@ -8187,7 +8193,7 @@
       </c>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>93</v>
       </c>
@@ -8232,7 +8238,7 @@
       </c>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="27">
         <v>94</v>
       </c>
@@ -8277,7 +8283,7 @@
       </c>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
         <v>95</v>
       </c>
@@ -8322,7 +8328,7 @@
       </c>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="27">
         <v>96</v>
       </c>
@@ -8367,7 +8373,7 @@
       </c>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="27">
         <v>97</v>
       </c>
@@ -8412,7 +8418,7 @@
       </c>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
         <v>98</v>
       </c>
@@ -8457,7 +8463,7 @@
       </c>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>99</v>
       </c>
@@ -8502,7 +8508,7 @@
       </c>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>100</v>
       </c>
@@ -8547,7 +8553,7 @@
       </c>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>101</v>
       </c>
@@ -8592,7 +8598,7 @@
       </c>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>102</v>
       </c>
@@ -8637,7 +8643,7 @@
       </c>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>103</v>
       </c>
@@ -8682,7 +8688,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>104</v>
       </c>
@@ -8727,7 +8733,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>105</v>
       </c>
@@ -8753,7 +8759,7 @@
         <v>34</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>194</v>
@@ -8772,7 +8778,7 @@
       </c>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>106</v>
       </c>
@@ -8817,7 +8823,7 @@
       </c>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>107</v>
       </c>
@@ -8862,7 +8868,7 @@
       </c>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>108</v>
       </c>
@@ -8907,7 +8913,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>109</v>
       </c>
@@ -8952,7 +8958,7 @@
       </c>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>110</v>
       </c>
@@ -8997,7 +9003,7 @@
       </c>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="27">
         <v>111</v>
       </c>
@@ -9042,7 +9048,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A113" s="27">
         <v>112</v>
       </c>
@@ -9089,7 +9095,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A114" s="27">
         <v>113</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A115" s="27">
         <v>114</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="27">
         <v>115</v>
       </c>
@@ -9230,7 +9236,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="27">
         <v>116</v>
       </c>
@@ -9275,7 +9281,7 @@
       </c>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="27">
         <v>117</v>
       </c>
@@ -9320,7 +9326,7 @@
       </c>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="27">
         <v>118</v>
       </c>
@@ -9365,7 +9371,7 @@
       </c>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="27">
         <v>119</v>
       </c>
@@ -9410,7 +9416,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>120</v>
       </c>
@@ -9455,7 +9461,7 @@
       </c>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="27">
         <v>121</v>
       </c>
@@ -9500,7 +9506,7 @@
       </c>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="27">
         <v>122</v>
       </c>
@@ -9545,7 +9551,7 @@
       </c>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="27">
         <v>123</v>
       </c>
@@ -9590,7 +9596,7 @@
       </c>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="27">
         <v>124</v>
       </c>
@@ -9635,7 +9641,7 @@
       </c>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="27">
         <v>125</v>
       </c>
@@ -9680,7 +9686,7 @@
       </c>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="27">
         <v>126</v>
       </c>
@@ -9725,7 +9731,7 @@
       </c>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="27">
         <v>127</v>
       </c>
@@ -9770,7 +9776,7 @@
       </c>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="27">
         <v>128</v>
       </c>
@@ -9815,7 +9821,7 @@
       </c>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="27">
         <v>129</v>
       </c>
@@ -9860,7 +9866,7 @@
       </c>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="27">
         <v>130</v>
       </c>
@@ -9905,7 +9911,7 @@
       </c>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="27">
         <v>131</v>
       </c>
@@ -9931,7 +9937,7 @@
         <v>34</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>194</v>
@@ -9950,7 +9956,7 @@
       </c>
       <c r="O132" s="18"/>
     </row>
-    <row r="133" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>132</v>
       </c>
@@ -9995,7 +10001,7 @@
       </c>
       <c r="O133" s="18"/>
     </row>
-    <row r="134" spans="1:16" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A134" s="27">
         <v>133</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="27">
         <v>134</v>
       </c>
@@ -10087,7 +10093,7 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="27">
         <v>135</v>
       </c>
@@ -10132,7 +10138,7 @@
       </c>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="27">
         <v>136</v>
       </c>
@@ -10177,7 +10183,7 @@
       </c>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="27">
         <v>137</v>
       </c>
@@ -10222,7 +10228,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="27">
         <v>138</v>
       </c>
@@ -10268,7 +10274,7 @@
       <c r="O139" s="18"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="27">
         <v>139</v>
       </c>
@@ -10313,7 +10319,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="27">
         <v>140</v>
       </c>
@@ -10358,7 +10364,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="27">
         <v>141</v>
       </c>
@@ -10403,7 +10409,7 @@
       </c>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="27">
         <v>142</v>
       </c>
@@ -10448,7 +10454,7 @@
       </c>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="27">
         <v>143</v>
       </c>
@@ -10493,7 +10499,7 @@
       </c>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="27">
         <v>144</v>
       </c>
@@ -10538,7 +10544,7 @@
       </c>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A146" s="27">
         <v>145</v>
       </c>
@@ -10583,7 +10589,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="27">
         <v>146</v>
       </c>
@@ -10628,7 +10634,7 @@
       </c>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="27">
         <v>147</v>
       </c>
@@ -10673,7 +10679,7 @@
       </c>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="27">
         <v>148</v>
       </c>
@@ -10718,7 +10724,7 @@
       </c>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="27">
         <v>149</v>
       </c>
@@ -10761,7 +10767,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="27">
         <v>150</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>10</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J151" s="8" t="s">
         <v>194</v>
@@ -10804,7 +10810,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="20"/>
     </row>
-    <row r="152" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="27">
         <v>151</v>
       </c>
@@ -10830,7 +10836,7 @@
         <v>10</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>194</v>
@@ -10847,7 +10853,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="20"/>
     </row>
-    <row r="153" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="27">
         <v>152</v>
       </c>
@@ -10873,7 +10879,7 @@
         <v>10</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J153" s="8" t="s">
         <v>194</v>
@@ -10890,7 +10896,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="27">
         <v>153</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>10</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J154" s="8" t="s">
         <v>194</v>
@@ -10933,7 +10939,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="27">
         <v>154</v>
       </c>
@@ -10959,7 +10965,7 @@
         <v>10</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J155" s="8" t="s">
         <v>194</v>
@@ -10976,7 +10982,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="27">
         <v>155</v>
       </c>
@@ -11002,7 +11008,7 @@
         <v>10</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J156" s="8" t="s">
         <v>194</v>
@@ -11019,7 +11025,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="27">
         <v>156</v>
       </c>
@@ -11045,7 +11051,7 @@
         <v>10</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J157" s="8" t="s">
         <v>194</v>
@@ -11062,7 +11068,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A158" s="27">
         <v>157</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A159" s="27">
         <v>158</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A160" s="27">
         <v>159</v>
       </c>
@@ -11203,7 +11209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="27">
         <v>160</v>
       </c>
@@ -11248,7 +11254,7 @@
       </c>
       <c r="O161" s="17"/>
     </row>
-    <row r="162" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="27">
         <v>161</v>
       </c>
@@ -11293,7 +11299,7 @@
       </c>
       <c r="O162" s="17"/>
     </row>
-    <row r="163" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="27">
         <v>162</v>
       </c>
@@ -11319,7 +11325,7 @@
         <v>10</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>11</v>
@@ -11338,7 +11344,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="27">
         <v>163</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>10</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>11</v>
@@ -11383,7 +11389,7 @@
       </c>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A165" s="27">
         <v>164</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A166" s="27">
         <v>165</v>
       </c>
@@ -11475,7 +11481,7 @@
       </c>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="27">
         <v>166</v>
       </c>
@@ -11520,7 +11526,7 @@
       </c>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="27">
         <v>167</v>
       </c>
@@ -11565,7 +11571,7 @@
       </c>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="27">
         <v>168</v>
       </c>
@@ -11610,7 +11616,7 @@
       </c>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="27">
         <v>169</v>
       </c>
@@ -11655,7 +11661,7 @@
       </c>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="27">
         <v>170</v>
       </c>
@@ -11700,7 +11706,7 @@
       </c>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="27">
         <v>171</v>
       </c>
@@ -11745,7 +11751,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="27">
         <v>172</v>
       </c>
@@ -11790,7 +11796,7 @@
       </c>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="27">
         <v>173</v>
       </c>
@@ -11835,7 +11841,7 @@
       </c>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="27">
         <v>174</v>
       </c>
@@ -11880,7 +11886,7 @@
       </c>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="27">
         <v>175</v>
       </c>
@@ -11925,7 +11931,7 @@
       </c>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="27">
         <v>176</v>
       </c>
@@ -11970,7 +11976,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="27">
         <v>177</v>
       </c>
@@ -12015,7 +12021,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="27">
         <v>178</v>
       </c>
@@ -12060,7 +12066,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="27">
         <v>179</v>
       </c>
@@ -12105,7 +12111,7 @@
       </c>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="27">
         <v>180</v>
       </c>
@@ -12150,7 +12156,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="27">
         <v>181</v>
       </c>
@@ -12195,7 +12201,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="27">
         <v>182</v>
       </c>
@@ -12240,7 +12246,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="27">
         <v>183</v>
       </c>
@@ -12285,7 +12291,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="27">
         <v>184</v>
       </c>
@@ -12330,7 +12336,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="27">
         <v>185</v>
       </c>
@@ -12375,7 +12381,7 @@
       </c>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="27">
         <v>186</v>
       </c>
@@ -12420,7 +12426,7 @@
       </c>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="27">
         <v>187</v>
       </c>
@@ -12465,7 +12471,7 @@
       </c>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="27">
         <v>188</v>
       </c>
@@ -12510,7 +12516,7 @@
       </c>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="27">
         <v>189</v>
       </c>
@@ -12555,7 +12561,7 @@
       </c>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="27">
         <v>190</v>
       </c>
@@ -12600,7 +12606,7 @@
       </c>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A192" s="27">
         <v>191</v>
       </c>
@@ -12645,7 +12651,7 @@
       </c>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A193" s="27">
         <v>192</v>
       </c>
@@ -12690,7 +12696,7 @@
       </c>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A194" s="27">
         <v>193</v>
       </c>
@@ -12735,7 +12741,7 @@
       </c>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="27">
         <v>194</v>
       </c>
@@ -12780,7 +12786,7 @@
       </c>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="27">
         <v>195</v>
       </c>
@@ -12825,7 +12831,7 @@
       </c>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="27">
         <v>196</v>
       </c>
@@ -12870,7 +12876,7 @@
       </c>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="27">
         <v>197</v>
       </c>
@@ -12915,7 +12921,7 @@
       </c>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="27">
         <v>198</v>
       </c>
@@ -12960,7 +12966,7 @@
       </c>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="27">
         <v>199</v>
       </c>
@@ -13005,7 +13011,7 @@
       </c>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="27">
         <v>200</v>
       </c>
@@ -13050,7 +13056,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="27">
         <v>201</v>
       </c>
@@ -13095,7 +13101,7 @@
       </c>
       <c r="O202" s="18"/>
     </row>
-    <row r="203" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="27">
         <v>202</v>
       </c>
@@ -13140,7 +13146,7 @@
       </c>
       <c r="O203" s="18"/>
     </row>
-    <row r="204" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="27">
         <v>203</v>
       </c>
@@ -13185,7 +13191,7 @@
       </c>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="27">
         <v>204</v>
       </c>
@@ -13230,7 +13236,7 @@
       </c>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="27">
         <v>205</v>
       </c>
@@ -13275,7 +13281,7 @@
       </c>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="27">
         <v>206</v>
       </c>
@@ -13320,7 +13326,7 @@
       </c>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="27">
         <v>207</v>
       </c>
@@ -13365,7 +13371,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A209" s="27">
         <v>208</v>
       </c>
@@ -13410,7 +13416,7 @@
       </c>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="27">
         <v>209</v>
       </c>
@@ -13455,7 +13461,7 @@
       </c>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="27">
         <v>210</v>
       </c>
@@ -13500,7 +13506,7 @@
       </c>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="27">
         <v>211</v>
       </c>
@@ -13545,7 +13551,7 @@
       </c>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="27">
         <v>212</v>
       </c>
@@ -13590,7 +13596,7 @@
       </c>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="27">
         <v>213</v>
       </c>
@@ -13635,7 +13641,7 @@
       </c>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="27">
         <v>214</v>
       </c>
@@ -13680,7 +13686,7 @@
       </c>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="27">
         <v>215</v>
       </c>
@@ -13725,7 +13731,7 @@
       </c>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="27">
         <v>216</v>
       </c>
@@ -13770,7 +13776,7 @@
       </c>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A218" s="27">
         <v>217</v>
       </c>
@@ -13815,7 +13821,7 @@
       </c>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A219" s="27">
         <v>218</v>
       </c>
@@ -13860,7 +13866,7 @@
       </c>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A220" s="27">
         <v>219</v>
       </c>
@@ -13905,7 +13911,7 @@
       </c>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="27">
         <v>220</v>
       </c>
@@ -13950,7 +13956,7 @@
       </c>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="27">
         <v>221</v>
       </c>
@@ -13995,7 +14001,7 @@
       </c>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A223" s="27">
         <v>222</v>
       </c>
@@ -14042,7 +14048,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="27">
         <v>223</v>
       </c>
@@ -14087,7 +14093,7 @@
       </c>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="27">
         <v>224</v>
       </c>
@@ -14132,7 +14138,7 @@
       </c>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="27">
         <v>225</v>
       </c>
@@ -14177,7 +14183,7 @@
       </c>
       <c r="O226" s="18"/>
     </row>
-    <row r="227" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="27">
         <v>226</v>
       </c>
@@ -14222,7 +14228,7 @@
       </c>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="27">
         <v>227</v>
       </c>
@@ -14267,7 +14273,7 @@
       </c>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="27">
         <v>228</v>
       </c>
@@ -14312,7 +14318,7 @@
       </c>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="27">
         <v>229</v>
       </c>
@@ -14357,7 +14363,7 @@
       </c>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="27">
         <v>230</v>
       </c>
@@ -14400,11 +14406,11 @@
       <c r="N231" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="O231" s="30" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="O231" s="29" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="27">
         <v>231</v>
       </c>
@@ -14449,7 +14455,7 @@
       </c>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A233" s="27">
         <v>232</v>
       </c>
@@ -14494,7 +14500,7 @@
       </c>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A234" s="27">
         <v>233</v>
       </c>
@@ -14541,7 +14547,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A235" s="27">
         <v>234</v>
       </c>
@@ -14588,7 +14594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="27">
         <v>235</v>
       </c>
@@ -14635,7 +14641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A237" s="27">
         <v>236</v>
       </c>
@@ -14682,7 +14688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A238" s="27">
         <v>237</v>
       </c>
@@ -14729,7 +14735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A239" s="27">
         <v>238</v>
       </c>
@@ -14776,7 +14782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A240" s="27">
         <v>239</v>
       </c>
@@ -14823,7 +14829,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A241" s="27">
         <v>240</v>
       </c>
@@ -14870,7 +14876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A242" s="27">
         <v>241</v>
       </c>
@@ -14917,7 +14923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A243" s="27">
         <v>242</v>
       </c>
@@ -14964,7 +14970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A244" s="27">
         <v>243</v>
       </c>
@@ -15011,7 +15017,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="27">
         <v>244</v>
       </c>
@@ -15058,7 +15064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="27">
         <v>245</v>
       </c>
@@ -15103,7 +15109,7 @@
       </c>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="27">
         <v>246</v>
       </c>
@@ -15148,7 +15154,7 @@
       </c>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="27">
         <v>247</v>
       </c>
@@ -15193,7 +15199,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="27">
         <v>248</v>
       </c>
@@ -15238,7 +15244,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="27">
         <v>249</v>
       </c>
@@ -15283,7 +15289,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="27">
         <v>250</v>
       </c>
@@ -15328,7 +15334,7 @@
       </c>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" spans="1:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A252" s="27">
         <v>251</v>
       </c>
@@ -15375,7 +15381,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A253" s="27">
         <v>252</v>
       </c>
@@ -15422,7 +15428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A254" s="27">
         <v>253</v>
       </c>
@@ -15469,7 +15475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="27">
         <v>254</v>
       </c>
@@ -15514,7 +15520,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="27">
         <v>255</v>
       </c>
@@ -15559,7 +15565,7 @@
       </c>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="27">
         <v>256</v>
       </c>
@@ -15604,7 +15610,7 @@
       </c>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="27">
         <v>257</v>
       </c>
@@ -15649,7 +15655,7 @@
       </c>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="27">
         <v>258</v>
       </c>
@@ -15694,7 +15700,7 @@
       </c>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="27">
         <v>259</v>
       </c>
@@ -15739,7 +15745,7 @@
       </c>
       <c r="O260" s="18"/>
     </row>
-    <row r="261" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="27">
         <v>260</v>
       </c>
@@ -15784,7 +15790,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="27">
         <v>261</v>
       </c>
@@ -15829,7 +15835,7 @@
       </c>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="27">
         <v>262</v>
       </c>
@@ -15874,7 +15880,7 @@
       </c>
       <c r="O263" s="20"/>
     </row>
-    <row r="264" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="27">
         <v>263</v>
       </c>
@@ -15919,7 +15925,7 @@
       </c>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="27">
         <v>264</v>
       </c>
@@ -15964,7 +15970,7 @@
       </c>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="27">
         <v>265</v>
       </c>
@@ -16009,7 +16015,7 @@
       </c>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="27">
         <v>266</v>
       </c>
@@ -16054,7 +16060,7 @@
       </c>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="27">
         <v>267</v>
       </c>
@@ -16099,7 +16105,7 @@
       </c>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="27">
         <v>268</v>
       </c>
@@ -16144,7 +16150,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="27">
         <v>269</v>
       </c>
@@ -16189,7 +16195,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="27">
         <v>270</v>
       </c>
@@ -16235,7 +16241,7 @@
       <c r="O271" s="18"/>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A272" s="27">
         <v>271</v>
       </c>
@@ -16282,7 +16288,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="27">
         <v>272</v>
       </c>
@@ -16327,7 +16333,7 @@
       </c>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="27">
         <v>273</v>
       </c>
@@ -16372,7 +16378,7 @@
       </c>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="27">
         <v>274</v>
       </c>
@@ -16417,7 +16423,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="27">
         <v>275</v>
       </c>
@@ -16462,7 +16468,7 @@
       </c>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="27">
         <v>276</v>
       </c>
@@ -16507,7 +16513,7 @@
       </c>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="27">
         <v>277</v>
       </c>
@@ -16552,7 +16558,7 @@
       </c>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="27">
         <v>278</v>
       </c>
@@ -16597,7 +16603,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="27">
         <v>279</v>
       </c>
@@ -16642,7 +16648,7 @@
       </c>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="27">
         <v>280</v>
       </c>
@@ -16687,7 +16693,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="27">
         <v>281</v>
       </c>
@@ -16732,7 +16738,7 @@
       </c>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="27">
         <v>282</v>
       </c>
@@ -16777,7 +16783,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="27">
         <v>283</v>
       </c>
@@ -16822,7 +16828,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="27">
         <v>284</v>
       </c>
@@ -16867,7 +16873,7 @@
       </c>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="27">
         <v>285</v>
       </c>
@@ -16912,7 +16918,7 @@
       </c>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="27">
         <v>286</v>
       </c>
@@ -16957,7 +16963,7 @@
       </c>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="27">
         <v>287</v>
       </c>
@@ -17002,7 +17008,7 @@
       </c>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="27">
         <v>288</v>
       </c>
@@ -17047,7 +17053,7 @@
       </c>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="27">
         <v>289</v>
       </c>
@@ -17073,7 +17079,7 @@
         <v>34</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J290" s="4" t="s">
         <v>194</v>
@@ -17092,7 +17098,7 @@
       </c>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="27">
         <v>290</v>
       </c>
@@ -17118,7 +17124,7 @@
         <v>10</v>
       </c>
       <c r="I291" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J291" s="4" t="s">
         <v>194</v>
@@ -17137,7 +17143,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="27">
         <v>291</v>
       </c>
@@ -17182,7 +17188,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="27">
         <v>292</v>
       </c>
@@ -17227,7 +17233,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="27">
         <v>293</v>
       </c>
@@ -17272,7 +17278,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="27">
         <v>294</v>
       </c>
@@ -17317,7 +17323,7 @@
       </c>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="27">
         <v>295</v>
       </c>
@@ -17362,7 +17368,7 @@
       </c>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="27">
         <v>296</v>
       </c>
@@ -17407,7 +17413,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="27">
         <v>297</v>
       </c>
@@ -17452,7 +17458,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="27">
         <v>298</v>
       </c>
@@ -17497,7 +17503,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="27">
         <v>299</v>
       </c>
@@ -17542,7 +17548,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="27">
         <v>300</v>
       </c>
@@ -17587,7 +17593,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="27">
         <v>301</v>
       </c>
@@ -17632,7 +17638,7 @@
       </c>
       <c r="O302" s="18"/>
     </row>
-    <row r="303" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="27">
         <v>302</v>
       </c>
@@ -17677,7 +17683,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="27">
         <v>303</v>
       </c>
@@ -17722,7 +17728,7 @@
       </c>
       <c r="O304" s="18"/>
     </row>
-    <row r="305" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="27">
         <v>304</v>
       </c>
@@ -17767,7 +17773,7 @@
       </c>
       <c r="O305" s="18"/>
     </row>
-    <row r="306" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="27">
         <v>305</v>
       </c>
@@ -17812,7 +17818,7 @@
       </c>
       <c r="O306" s="18"/>
     </row>
-    <row r="307" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="27">
         <v>306</v>
       </c>
@@ -17857,7 +17863,7 @@
       </c>
       <c r="O307" s="18"/>
     </row>
-    <row r="308" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="27">
         <v>307</v>
       </c>
@@ -17902,7 +17908,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="27">
         <v>308</v>
       </c>
@@ -17947,7 +17953,7 @@
       </c>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="27">
         <v>309</v>
       </c>
@@ -17992,7 +17998,7 @@
       </c>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="27">
         <v>310</v>
       </c>
@@ -18037,7 +18043,7 @@
       </c>
       <c r="O311" s="18"/>
     </row>
-    <row r="312" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="27">
         <v>311</v>
       </c>
@@ -18082,7 +18088,7 @@
       </c>
       <c r="O312" s="18"/>
     </row>
-    <row r="313" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="27">
         <v>312</v>
       </c>
@@ -18127,7 +18133,7 @@
       </c>
       <c r="O313" s="18"/>
     </row>
-    <row r="314" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="27">
         <v>313</v>
       </c>
@@ -18172,7 +18178,7 @@
       </c>
       <c r="O314" s="18"/>
     </row>
-    <row r="315" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="27">
         <v>314</v>
       </c>
@@ -18217,7 +18223,7 @@
       </c>
       <c r="O315" s="18"/>
     </row>
-    <row r="316" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="27">
         <v>315</v>
       </c>
@@ -18262,7 +18268,7 @@
       </c>
       <c r="O316" s="18"/>
     </row>
-    <row r="317" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="27">
         <v>316</v>
       </c>
@@ -18307,7 +18313,7 @@
       </c>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="27">
         <v>317</v>
       </c>
@@ -18352,7 +18358,7 @@
       </c>
       <c r="O318" s="18"/>
     </row>
-    <row r="319" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="27">
         <v>318</v>
       </c>
@@ -18397,7 +18403,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="27">
         <v>319</v>
       </c>
@@ -18442,7 +18448,7 @@
       </c>
       <c r="O320" s="18"/>
     </row>
-    <row r="321" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="27">
         <v>320</v>
       </c>
@@ -18487,7 +18493,7 @@
       </c>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="27">
         <v>321</v>
       </c>
@@ -18532,7 +18538,7 @@
       </c>
       <c r="O322" s="18"/>
     </row>
-    <row r="323" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="27">
         <v>322</v>
       </c>
@@ -18577,7 +18583,7 @@
       </c>
       <c r="O323" s="18"/>
     </row>
-    <row r="324" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="27">
         <v>323</v>
       </c>
@@ -18622,7 +18628,7 @@
       </c>
       <c r="O324" s="18"/>
     </row>
-    <row r="325" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="27">
         <v>324</v>
       </c>
@@ -18667,7 +18673,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="27">
         <v>325</v>
       </c>
@@ -18712,7 +18718,7 @@
       </c>
       <c r="O326" s="18"/>
     </row>
-    <row r="327" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="27">
         <v>326</v>
       </c>
@@ -18757,7 +18763,7 @@
       </c>
       <c r="O327" s="18"/>
     </row>
-    <row r="328" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="27">
         <v>327</v>
       </c>
@@ -18802,7 +18808,7 @@
       </c>
       <c r="O328" s="18"/>
     </row>
-    <row r="329" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="27">
         <v>328</v>
       </c>
@@ -18847,7 +18853,7 @@
       </c>
       <c r="O329" s="18"/>
     </row>
-    <row r="330" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="27">
         <v>329</v>
       </c>
@@ -18892,7 +18898,7 @@
       </c>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="27">
         <v>330</v>
       </c>
@@ -18937,7 +18943,7 @@
       </c>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A332" s="27">
         <v>331</v>
       </c>
@@ -18982,7 +18988,7 @@
       </c>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="27">
         <v>332</v>
       </c>
@@ -19027,7 +19033,7 @@
       </c>
       <c r="O333" s="20"/>
     </row>
-    <row r="334" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="27">
         <v>333</v>
       </c>
@@ -19072,7 +19078,7 @@
       </c>
       <c r="O334" s="20"/>
     </row>
-    <row r="335" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="27">
         <v>334</v>
       </c>
@@ -19117,7 +19123,7 @@
       </c>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A336" s="27">
         <v>335</v>
       </c>
@@ -19162,7 +19168,7 @@
       </c>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="27">
         <v>336</v>
       </c>
@@ -19207,7 +19213,7 @@
       </c>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A338" s="27">
         <v>337</v>
       </c>
@@ -19252,7 +19258,7 @@
       </c>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A339" s="27">
         <v>338</v>
       </c>
@@ -19297,7 +19303,7 @@
       </c>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A340" s="27">
         <v>339</v>
       </c>
@@ -19342,7 +19348,7 @@
       </c>
       <c r="O340" s="20"/>
     </row>
-    <row r="341" spans="1:15" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A341" s="27">
         <v>340</v>
       </c>
@@ -19389,7 +19395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A342" s="27">
         <v>341</v>
       </c>
@@ -19436,7 +19442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="27">
         <v>342</v>
       </c>
@@ -19481,7 +19487,7 @@
       </c>
       <c r="O343" s="18"/>
     </row>
-    <row r="344" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="27">
         <v>343</v>
       </c>
@@ -19526,7 +19532,7 @@
       </c>
       <c r="O344" s="18"/>
     </row>
-    <row r="345" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="27">
         <v>344</v>
       </c>
@@ -19571,7 +19577,7 @@
       </c>
       <c r="O345" s="18"/>
     </row>
-    <row r="346" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="27">
         <v>345</v>
       </c>
@@ -19616,7 +19622,7 @@
       </c>
       <c r="O346" s="18"/>
     </row>
-    <row r="347" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="27">
         <v>346</v>
       </c>
@@ -19661,7 +19667,7 @@
       </c>
       <c r="O347" s="18"/>
     </row>
-    <row r="348" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="27">
         <v>347</v>
       </c>
@@ -19706,7 +19712,7 @@
       </c>
       <c r="O348" s="18"/>
     </row>
-    <row r="349" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="27">
         <v>348</v>
       </c>
@@ -19751,7 +19757,7 @@
       </c>
       <c r="O349" s="18"/>
     </row>
-    <row r="350" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="27">
         <v>349</v>
       </c>
@@ -19796,7 +19802,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A351" s="27">
         <v>350</v>
       </c>
@@ -19841,7 +19847,7 @@
       </c>
       <c r="O351" s="18"/>
     </row>
-    <row r="352" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="27">
         <v>351</v>
       </c>
@@ -19886,7 +19892,7 @@
       </c>
       <c r="O352" s="18"/>
     </row>
-    <row r="353" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="27">
         <v>352</v>
       </c>
@@ -19931,7 +19937,7 @@
       </c>
       <c r="O353" s="18"/>
     </row>
-    <row r="354" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="27">
         <v>353</v>
       </c>
@@ -19976,7 +19982,7 @@
       </c>
       <c r="O354" s="18"/>
     </row>
-    <row r="355" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A355" s="27">
         <v>354</v>
       </c>
@@ -20021,7 +20027,7 @@
       </c>
       <c r="O355" s="18"/>
     </row>
-    <row r="356" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="27">
         <v>355</v>
       </c>
@@ -20066,7 +20072,7 @@
       </c>
       <c r="O356" s="18"/>
     </row>
-    <row r="357" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A357" s="27">
         <v>356</v>
       </c>
@@ -20111,7 +20117,7 @@
       </c>
       <c r="O357" s="18"/>
     </row>
-    <row r="358" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A358" s="27">
         <v>357</v>
       </c>
@@ -20156,7 +20162,7 @@
       </c>
       <c r="O358" s="18"/>
     </row>
-    <row r="359" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="27">
         <v>358</v>
       </c>
@@ -20201,7 +20207,7 @@
       </c>
       <c r="O359" s="18"/>
     </row>
-    <row r="360" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="27">
         <v>359</v>
       </c>
@@ -20246,7 +20252,7 @@
       </c>
       <c r="O360" s="18"/>
     </row>
-    <row r="361" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="27">
         <v>360</v>
       </c>
@@ -20291,7 +20297,7 @@
       </c>
       <c r="O361" s="18"/>
     </row>
-    <row r="362" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="27">
         <v>361</v>
       </c>
@@ -20336,7 +20342,7 @@
       </c>
       <c r="O362" s="18"/>
     </row>
-    <row r="363" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="27">
         <v>362</v>
       </c>
@@ -20381,7 +20387,7 @@
       </c>
       <c r="O363" s="18"/>
     </row>
-    <row r="364" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="27">
         <v>363</v>
       </c>
@@ -20407,7 +20413,7 @@
         <v>10</v>
       </c>
       <c r="I364" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J364" s="4" t="s">
         <v>397</v>
@@ -20421,12 +20427,12 @@
       <c r="M364" s="12" t="s">
         <v>1134</v>
       </c>
-      <c r="N364" s="31" t="s">
-        <v>1144</v>
+      <c r="N364" s="30" t="s">
+        <v>1143</v>
       </c>
       <c r="O364" s="18"/>
     </row>
-    <row r="365" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="27">
         <v>364</v>
       </c>
@@ -20471,7 +20477,7 @@
       </c>
       <c r="O365" s="18"/>
     </row>
-    <row r="366" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="27">
         <v>365</v>
       </c>
@@ -20516,7 +20522,7 @@
       </c>
       <c r="O366" s="18"/>
     </row>
-    <row r="367" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="27">
         <v>366</v>
       </c>
@@ -20561,7 +20567,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="27">
         <v>367</v>
       </c>
@@ -20606,7 +20612,7 @@
       </c>
       <c r="O368" s="18"/>
     </row>
-    <row r="369" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A369" s="27">
         <v>368</v>
       </c>
@@ -20651,7 +20657,7 @@
       </c>
       <c r="O369" s="18"/>
     </row>
-    <row r="370" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="27">
         <v>369</v>
       </c>
@@ -20696,7 +20702,7 @@
       </c>
       <c r="O370" s="18"/>
     </row>
-    <row r="371" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="27">
         <v>370</v>
       </c>
@@ -20741,7 +20747,7 @@
       </c>
       <c r="O371" s="18"/>
     </row>
-    <row r="372" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="27">
         <v>371</v>
       </c>
@@ -20786,7 +20792,7 @@
       </c>
       <c r="O372" s="18"/>
     </row>
-    <row r="373" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A373" s="27">
         <v>372</v>
       </c>
@@ -20831,7 +20837,7 @@
       </c>
       <c r="O373" s="18"/>
     </row>
-    <row r="374" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="27">
         <v>373</v>
       </c>
@@ -20876,7 +20882,7 @@
       </c>
       <c r="O374" s="18"/>
     </row>
-    <row r="375" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="27">
         <v>374</v>
       </c>
@@ -20921,7 +20927,7 @@
       </c>
       <c r="O375" s="18"/>
     </row>
-    <row r="376" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="27">
         <v>375</v>
       </c>
@@ -20966,7 +20972,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="27">
         <v>376</v>
       </c>
@@ -21011,7 +21017,7 @@
       </c>
       <c r="O377" s="18"/>
     </row>
-    <row r="378" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="27">
         <v>377</v>
       </c>
@@ -21056,7 +21062,7 @@
       </c>
       <c r="O378" s="18"/>
     </row>
-    <row r="379" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="27">
         <v>378</v>
       </c>
@@ -21101,7 +21107,7 @@
       </c>
       <c r="O379" s="18"/>
     </row>
-    <row r="380" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="27">
         <v>379</v>
       </c>
@@ -21146,7 +21152,7 @@
       </c>
       <c r="O380" s="18"/>
     </row>
-    <row r="381" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A381" s="27">
         <v>380</v>
       </c>
@@ -21191,7 +21197,7 @@
       </c>
       <c r="O381" s="18"/>
     </row>
-    <row r="382" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A382" s="27">
         <v>381</v>
       </c>
@@ -21236,7 +21242,7 @@
       </c>
       <c r="O382" s="18"/>
     </row>
-    <row r="383" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A383" s="27">
         <v>382</v>
       </c>
@@ -21281,7 +21287,7 @@
       </c>
       <c r="O383" s="18"/>
     </row>
-    <row r="384" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="27">
         <v>383</v>
       </c>
@@ -21326,7 +21332,7 @@
       </c>
       <c r="O384" s="18"/>
     </row>
-    <row r="385" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="27">
         <v>384</v>
       </c>
@@ -21371,7 +21377,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="27">
         <v>385</v>
       </c>
@@ -21416,7 +21422,7 @@
       </c>
       <c r="O386" s="18"/>
     </row>
-    <row r="387" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="27">
         <v>386</v>
       </c>
@@ -21461,7 +21467,7 @@
       </c>
       <c r="O387" s="18"/>
     </row>
-    <row r="388" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="27">
         <v>387</v>
       </c>
@@ -21506,7 +21512,7 @@
       </c>
       <c r="O388" s="18"/>
     </row>
-    <row r="389" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="27">
         <v>388</v>
       </c>
@@ -21551,7 +21557,7 @@
       </c>
       <c r="O389" s="18"/>
     </row>
-    <row r="390" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="27">
         <v>389</v>
       </c>
@@ -21596,7 +21602,7 @@
       </c>
       <c r="O390" s="18"/>
     </row>
-    <row r="391" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="27">
         <v>390</v>
       </c>
@@ -21641,7 +21647,7 @@
       </c>
       <c r="O391" s="18"/>
     </row>
-    <row r="392" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="27">
         <v>391</v>
       </c>
@@ -21686,7 +21692,7 @@
       </c>
       <c r="O392" s="18"/>
     </row>
-    <row r="393" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="27">
         <v>392</v>
       </c>
@@ -21731,7 +21737,7 @@
       </c>
       <c r="O393" s="18"/>
     </row>
-    <row r="394" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="27">
         <v>393</v>
       </c>
@@ -21776,7 +21782,7 @@
       </c>
       <c r="O394" s="18"/>
     </row>
-    <row r="395" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="27">
         <v>394</v>
       </c>
@@ -21821,7 +21827,7 @@
       </c>
       <c r="O395" s="18"/>
     </row>
-    <row r="396" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="27">
         <v>395</v>
       </c>
@@ -21866,7 +21872,7 @@
       </c>
       <c r="O396" s="18"/>
     </row>
-    <row r="397" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A397" s="27">
         <v>396</v>
       </c>
@@ -21911,7 +21917,7 @@
       </c>
       <c r="O397" s="18"/>
     </row>
-    <row r="398" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="27">
         <v>397</v>
       </c>
@@ -21956,7 +21962,7 @@
       </c>
       <c r="O398" s="18"/>
     </row>
-    <row r="399" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="27">
         <v>398</v>
       </c>
@@ -22001,7 +22007,7 @@
       </c>
       <c r="O399" s="18"/>
     </row>
-    <row r="400" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="27">
         <v>399</v>
       </c>
@@ -22046,7 +22052,7 @@
       </c>
       <c r="O400" s="18"/>
     </row>
-    <row r="401" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="27">
         <v>400</v>
       </c>
@@ -22091,7 +22097,7 @@
       </c>
       <c r="O401" s="18"/>
     </row>
-    <row r="402" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="27">
         <v>401</v>
       </c>
@@ -22136,7 +22142,7 @@
       </c>
       <c r="O402" s="18"/>
     </row>
-    <row r="403" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="27">
         <v>402</v>
       </c>
@@ -22181,7 +22187,7 @@
       </c>
       <c r="O403" s="18"/>
     </row>
-    <row r="404" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="27">
         <v>403</v>
       </c>
@@ -22226,7 +22232,7 @@
       </c>
       <c r="O404" s="18"/>
     </row>
-    <row r="405" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="27">
         <v>404</v>
       </c>
@@ -22271,7 +22277,7 @@
       </c>
       <c r="O405" s="18"/>
     </row>
-    <row r="406" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="27">
         <v>405</v>
       </c>
@@ -22316,7 +22322,7 @@
       </c>
       <c r="O406" s="18"/>
     </row>
-    <row r="407" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="27">
         <v>406</v>
       </c>
@@ -22361,7 +22367,7 @@
       </c>
       <c r="O407" s="18"/>
     </row>
-    <row r="408" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="27">
         <v>407</v>
       </c>
@@ -22406,7 +22412,7 @@
       </c>
       <c r="O408" s="18"/>
     </row>
-    <row r="409" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="27">
         <v>408</v>
       </c>
@@ -22451,7 +22457,7 @@
       </c>
       <c r="O409" s="18"/>
     </row>
-    <row r="410" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="27">
         <v>409</v>
       </c>
@@ -22496,7 +22502,7 @@
       </c>
       <c r="O410" s="18"/>
     </row>
-    <row r="411" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="27">
         <v>410</v>
       </c>
@@ -22541,7 +22547,7 @@
       </c>
       <c r="O411" s="18"/>
     </row>
-    <row r="412" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="27">
         <v>411</v>
       </c>
@@ -22586,7 +22592,7 @@
       </c>
       <c r="O412" s="18"/>
     </row>
-    <row r="413" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="27">
         <v>412</v>
       </c>
@@ -22631,7 +22637,7 @@
       </c>
       <c r="O413" s="18"/>
     </row>
-    <row r="414" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="27">
         <v>413</v>
       </c>
@@ -22676,7 +22682,7 @@
       </c>
       <c r="O414" s="18"/>
     </row>
-    <row r="415" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A415" s="27">
         <v>414</v>
       </c>
@@ -22721,7 +22727,7 @@
       </c>
       <c r="O415" s="18"/>
     </row>
-    <row r="416" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="27">
         <v>415</v>
       </c>
@@ -22766,7 +22772,7 @@
       </c>
       <c r="O416" s="18"/>
     </row>
-    <row r="417" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="27">
         <v>416</v>
       </c>
@@ -22811,7 +22817,7 @@
       </c>
       <c r="O417" s="18"/>
     </row>
-    <row r="418" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A418" s="27">
         <v>417</v>
       </c>
@@ -22856,7 +22862,7 @@
       </c>
       <c r="O418" s="18"/>
     </row>
-    <row r="419" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="27">
         <v>418</v>
       </c>
@@ -22901,7 +22907,7 @@
       </c>
       <c r="O419" s="18"/>
     </row>
-    <row r="420" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="27">
         <v>419</v>
       </c>
@@ -22946,7 +22952,7 @@
       </c>
       <c r="O420" s="18"/>
     </row>
-    <row r="421" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="27">
         <v>420</v>
       </c>
@@ -22991,7 +22997,7 @@
       </c>
       <c r="O421" s="18"/>
     </row>
-    <row r="422" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="27">
         <v>421</v>
       </c>
@@ -23036,7 +23042,7 @@
       </c>
       <c r="O422" s="18"/>
     </row>
-    <row r="423" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="27">
         <v>422</v>
       </c>
@@ -23081,7 +23087,7 @@
       </c>
       <c r="O423" s="18"/>
     </row>
-    <row r="424" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="27">
         <v>423</v>
       </c>
@@ -23107,7 +23113,7 @@
         <v>34</v>
       </c>
       <c r="I424" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J424" s="4" t="s">
         <v>194</v>
@@ -23126,7 +23132,7 @@
       </c>
       <c r="O424" s="18"/>
     </row>
-    <row r="425" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="27">
         <v>424</v>
       </c>
@@ -23171,7 +23177,7 @@
       </c>
       <c r="O425" s="18"/>
     </row>
-    <row r="426" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="27">
         <v>425</v>
       </c>
@@ -23216,7 +23222,7 @@
       </c>
       <c r="O426" s="18"/>
     </row>
-    <row r="427" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="27">
         <v>426</v>
       </c>
@@ -23261,7 +23267,7 @@
       </c>
       <c r="O427" s="18"/>
     </row>
-    <row r="428" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="27">
         <v>427</v>
       </c>
@@ -23306,7 +23312,7 @@
       </c>
       <c r="O428" s="18"/>
     </row>
-    <row r="429" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="27">
         <v>428</v>
       </c>
@@ -23351,7 +23357,7 @@
       </c>
       <c r="O429" s="18"/>
     </row>
-    <row r="430" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="27">
         <v>429</v>
       </c>
@@ -23396,7 +23402,7 @@
       </c>
       <c r="O430" s="18"/>
     </row>
-    <row r="431" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="27">
         <v>430</v>
       </c>
@@ -23441,7 +23447,7 @@
       </c>
       <c r="O431" s="18"/>
     </row>
-    <row r="432" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="27">
         <v>431</v>
       </c>
@@ -23486,7 +23492,7 @@
       </c>
       <c r="O432" s="18"/>
     </row>
-    <row r="433" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="27">
         <v>432</v>
       </c>
@@ -23531,7 +23537,7 @@
       </c>
       <c r="O433" s="18"/>
     </row>
-    <row r="434" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="27">
         <v>433</v>
       </c>
@@ -23576,7 +23582,7 @@
       </c>
       <c r="O434" s="18"/>
     </row>
-    <row r="435" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="27">
         <v>434</v>
       </c>
@@ -23621,7 +23627,7 @@
       </c>
       <c r="O435" s="18"/>
     </row>
-    <row r="436" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="27">
         <v>435</v>
       </c>
@@ -23666,7 +23672,7 @@
       </c>
       <c r="O436" s="18"/>
     </row>
-    <row r="437" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="27">
         <v>436</v>
       </c>
@@ -23711,7 +23717,7 @@
       </c>
       <c r="O437" s="18"/>
     </row>
-    <row r="438" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="27">
         <v>437</v>
       </c>
@@ -23756,7 +23762,7 @@
       </c>
       <c r="O438" s="18"/>
     </row>
-    <row r="439" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="27">
         <v>438</v>
       </c>
@@ -23801,7 +23807,7 @@
       </c>
       <c r="O439" s="18"/>
     </row>
-    <row r="440" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="27">
         <v>439</v>
       </c>
@@ -23846,7 +23852,7 @@
       </c>
       <c r="O440" s="18"/>
     </row>
-    <row r="441" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="27">
         <v>440</v>
       </c>
@@ -23891,7 +23897,7 @@
       </c>
       <c r="O441" s="18"/>
     </row>
-    <row r="442" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="27">
         <v>441</v>
       </c>
@@ -23936,7 +23942,7 @@
       </c>
       <c r="O442" s="18"/>
     </row>
-    <row r="443" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="27">
         <v>442</v>
       </c>
@@ -23981,7 +23987,7 @@
       </c>
       <c r="O443" s="18"/>
     </row>
-    <row r="444" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="27">
         <v>443</v>
       </c>
@@ -24026,7 +24032,7 @@
       </c>
       <c r="O444" s="18"/>
     </row>
-    <row r="445" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="27">
         <v>444</v>
       </c>
@@ -24071,7 +24077,7 @@
       </c>
       <c r="O445" s="18"/>
     </row>
-    <row r="446" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="27">
         <v>445</v>
       </c>
@@ -24116,7 +24122,7 @@
       </c>
       <c r="O446" s="18"/>
     </row>
-    <row r="447" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="27">
         <v>446</v>
       </c>
@@ -24161,7 +24167,7 @@
       </c>
       <c r="O447" s="18"/>
     </row>
-    <row r="448" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="27">
         <v>447</v>
       </c>
@@ -24206,7 +24212,7 @@
       </c>
       <c r="O448" s="18"/>
     </row>
-    <row r="449" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="27">
         <v>448</v>
       </c>
@@ -24251,7 +24257,7 @@
       </c>
       <c r="O449" s="18"/>
     </row>
-    <row r="450" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="27">
         <v>449</v>
       </c>
@@ -24296,7 +24302,7 @@
       </c>
       <c r="O450" s="18"/>
     </row>
-    <row r="451" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="27">
         <v>450</v>
       </c>
@@ -24341,7 +24347,7 @@
       </c>
       <c r="O451" s="18"/>
     </row>
-    <row r="452" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="27">
         <v>451</v>
       </c>
@@ -24386,7 +24392,7 @@
       </c>
       <c r="O452" s="18"/>
     </row>
-    <row r="453" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="27">
         <v>452</v>
       </c>
@@ -24431,7 +24437,7 @@
       </c>
       <c r="O453" s="18"/>
     </row>
-    <row r="454" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="27">
         <v>453</v>
       </c>
@@ -24476,7 +24482,7 @@
       </c>
       <c r="O454" s="18"/>
     </row>
-    <row r="455" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="27">
         <v>454</v>
       </c>
@@ -24521,7 +24527,7 @@
       </c>
       <c r="O455" s="18"/>
     </row>
-    <row r="456" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="27">
         <v>455</v>
       </c>
@@ -24566,7 +24572,7 @@
       </c>
       <c r="O456" s="18"/>
     </row>
-    <row r="457" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="27">
         <v>456</v>
       </c>
@@ -24611,7 +24617,7 @@
       </c>
       <c r="O457" s="18"/>
     </row>
-    <row r="458" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="27">
         <v>457</v>
       </c>
@@ -24658,7 +24664,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="27">
         <v>458</v>
       </c>
@@ -24703,7 +24709,7 @@
       </c>
       <c r="O459" s="18"/>
     </row>
-    <row r="460" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="27">
         <v>459</v>
       </c>
@@ -24748,7 +24754,7 @@
       </c>
       <c r="O460" s="18"/>
     </row>
-    <row r="461" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="27">
         <v>460</v>
       </c>
@@ -24793,7 +24799,7 @@
       </c>
       <c r="O461" s="18"/>
     </row>
-    <row r="462" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="27">
         <v>461</v>
       </c>
@@ -24838,7 +24844,7 @@
       </c>
       <c r="O462" s="18"/>
     </row>
-    <row r="463" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="27">
         <v>462</v>
       </c>
@@ -24883,7 +24889,7 @@
       </c>
       <c r="O463" s="18"/>
     </row>
-    <row r="464" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="27">
         <v>463</v>
       </c>
@@ -24928,7 +24934,7 @@
       </c>
       <c r="O464" s="18"/>
     </row>
-    <row r="465" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="27">
         <v>464</v>
       </c>
@@ -24973,7 +24979,7 @@
       </c>
       <c r="O465" s="18"/>
     </row>
-    <row r="466" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="27">
         <v>465</v>
       </c>
@@ -25018,7 +25024,7 @@
       </c>
       <c r="O466" s="18"/>
     </row>
-    <row r="467" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="27">
         <v>466</v>
       </c>
@@ -25063,7 +25069,7 @@
       </c>
       <c r="O467" s="18"/>
     </row>
-    <row r="468" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="27">
         <v>467</v>
       </c>
@@ -25120,7 +25126,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="27">
         <v>468</v>
       </c>
@@ -25177,7 +25183,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="27">
         <v>469</v>
       </c>
@@ -25234,7 +25240,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="27">
         <v>470</v>
       </c>
@@ -25291,7 +25297,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="27">
         <v>471</v>
       </c>
@@ -25348,7 +25354,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="27">
         <v>472</v>
       </c>
@@ -25405,7 +25411,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="27">
         <v>473</v>
       </c>
@@ -25462,7 +25468,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="27">
         <v>474</v>
       </c>
@@ -25519,7 +25525,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="27">
         <v>475</v>
       </c>
@@ -25576,7 +25582,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="27">
         <v>476</v>
       </c>
@@ -25633,7 +25639,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="27">
         <v>477</v>
       </c>
@@ -25690,7 +25696,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="27">
         <v>478</v>
       </c>
@@ -25747,7 +25753,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="27">
         <v>479</v>
       </c>
@@ -25804,7 +25810,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="27">
         <v>480</v>
       </c>
@@ -25861,7 +25867,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="27">
         <v>481</v>
       </c>
@@ -25918,7 +25924,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="27">
         <v>482</v>
       </c>
@@ -25975,7 +25981,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="27">
         <v>483</v>
       </c>
@@ -25985,7 +25991,7 @@
       <c r="C484" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="D484" s="32" t="s">
+      <c r="D484" s="31" t="s">
         <v>973</v>
       </c>
       <c r="E484" s="4" t="s">
@@ -26032,7 +26038,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="27">
         <v>484</v>
       </c>
@@ -26089,7 +26095,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="27">
         <v>485</v>
       </c>
@@ -26146,7 +26152,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="27">
         <v>486</v>
       </c>
@@ -26203,7 +26209,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="27">
         <v>487</v>
       </c>
@@ -26260,7 +26266,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="27">
         <v>488</v>
       </c>
@@ -26317,7 +26323,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="27">
         <v>489</v>
       </c>
@@ -26372,7 +26378,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A491" s="27">
         <v>490</v>
       </c>
@@ -26380,7 +26386,7 @@
         <v>1117</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>1060</v>
@@ -26419,7 +26425,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="492" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A492" s="27">
         <v>491</v>
       </c>
@@ -26427,7 +26433,7 @@
         <v>1117</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>1063</v>
@@ -26466,7 +26472,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A493" s="27">
         <v>492</v>
       </c>
@@ -26474,7 +26480,7 @@
         <v>1117</v>
       </c>
       <c r="C493" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>1065</v>
@@ -26513,7 +26519,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A494" s="27">
         <v>493</v>
       </c>
@@ -26521,7 +26527,7 @@
         <v>1117</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>1067</v>
@@ -26560,7 +26566,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A495" s="27">
         <v>494</v>
       </c>
@@ -26568,7 +26574,7 @@
         <v>1117</v>
       </c>
       <c r="C495" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>1047</v>
@@ -26608,7 +26614,7 @@
       </c>
       <c r="P495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A496" s="27">
         <v>495</v>
       </c>
@@ -26616,7 +26622,7 @@
         <v>1117</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>1051</v>
@@ -26656,7 +26662,7 @@
       </c>
       <c r="P496" s="1"/>
     </row>
-    <row r="497" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A497" s="27">
         <v>496</v>
       </c>
@@ -26664,7 +26670,7 @@
         <v>1117</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>1055</v>
@@ -26703,7 +26709,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="27">
         <v>497</v>
       </c>
@@ -26711,7 +26717,7 @@
         <v>1117</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>1057</v>
@@ -26749,7 +26755,7 @@
       <c r="O498" s="18"/>
       <c r="P498" s="1"/>
     </row>
-    <row r="499" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A499" s="27">
         <v>498</v>
       </c>
@@ -26757,7 +26763,7 @@
         <v>1117</v>
       </c>
       <c r="C499" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>1010</v>
@@ -26797,7 +26803,7 @@
       </c>
       <c r="P499" s="1"/>
     </row>
-    <row r="500" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A500" s="27">
         <v>499</v>
       </c>
@@ -26805,7 +26811,7 @@
         <v>1117</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>1015</v>
@@ -26844,7 +26850,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A501" s="27">
         <v>500</v>
       </c>
@@ -26852,7 +26858,7 @@
         <v>1117</v>
       </c>
       <c r="C501" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>1018</v>
@@ -26891,7 +26897,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A502" s="27">
         <v>501</v>
       </c>
@@ -26899,7 +26905,7 @@
         <v>1117</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>1022</v>
@@ -26938,7 +26944,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A503" s="27">
         <v>502</v>
       </c>
@@ -26946,7 +26952,7 @@
         <v>1117</v>
       </c>
       <c r="C503" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>1026</v>
@@ -26986,7 +26992,7 @@
       </c>
       <c r="P503" s="1"/>
     </row>
-    <row r="504" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" s="27">
         <v>503</v>
       </c>
@@ -26994,7 +27000,7 @@
         <v>1117</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D504" s="8" t="s">
         <v>1029</v>
@@ -27033,7 +27039,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A505" s="27">
         <v>504</v>
       </c>
@@ -27041,7 +27047,7 @@
         <v>1117</v>
       </c>
       <c r="C505" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>1032</v>
@@ -27080,7 +27086,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A506" s="27">
         <v>505</v>
       </c>
@@ -27088,7 +27094,7 @@
         <v>1117</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>1036</v>
@@ -27127,7 +27133,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A507" s="27">
         <v>506</v>
       </c>
@@ -27135,7 +27141,7 @@
         <v>1117</v>
       </c>
       <c r="C507" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D507" s="9" t="s">
         <v>1040</v>
@@ -27175,7 +27181,7 @@
       </c>
       <c r="P507" s="1"/>
     </row>
-    <row r="508" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A508" s="27">
         <v>507</v>
       </c>
@@ -27183,7 +27189,7 @@
         <v>1117</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>1043</v>
@@ -27222,7 +27228,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A509" s="27">
         <v>508</v>
       </c>
@@ -27230,7 +27236,7 @@
         <v>1117</v>
       </c>
       <c r="C509" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D509" s="8" t="s">
         <v>80</v>
@@ -27269,7 +27275,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A510" s="27">
         <v>509</v>
       </c>
@@ -27277,7 +27283,7 @@
         <v>1117</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D510" s="8" t="s">
         <v>80</v>
@@ -27316,7 +27322,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A511" s="27">
         <v>510</v>
       </c>
@@ -27324,7 +27330,7 @@
         <v>1117</v>
       </c>
       <c r="C511" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D511" s="8" t="s">
         <v>1122</v>
@@ -27364,378 +27370,378 @@
       </c>
       <c r="P511" s="1"/>
     </row>
-    <row r="512" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A512" s="27">
         <v>511</v>
       </c>
       <c r="B512" s="28" t="s">
         <v>1117</v>
       </c>
-      <c r="C512" s="29" t="s">
-        <v>1138</v>
+      <c r="C512" s="12" t="s">
+        <v>1137</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E512" s="13" t="s">
         <v>1011</v>
       </c>
       <c r="F512" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G512" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H512" s="13" t="s">
         <v>1140</v>
       </c>
-      <c r="G512" s="12" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H512" s="13" t="s">
-        <v>1141</v>
-      </c>
       <c r="I512" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J512" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="K512" s="29" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L512" s="29" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M512" s="29" t="s">
-        <v>1134</v>
-      </c>
-      <c r="N512" s="30" t="s">
-        <v>1142</v>
+      <c r="K512" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L512" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M512" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="N512" s="29" t="s">
+        <v>1141</v>
       </c>
       <c r="O512" s="18"/>
     </row>
-    <row r="513" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D513" s="3"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D514" s="3"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D515" s="3"/>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D516" s="3"/>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D517" s="3"/>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D518" s="3"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D519" s="3"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D520" s="3"/>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D521" s="3"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D522" s="3"/>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D523" s="3"/>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D524" s="3"/>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D525" s="3"/>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D526" s="3"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D527" s="3"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D528" s="3"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D529" s="3"/>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D530" s="3"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D531" s="3"/>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D532" s="3"/>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D533" s="3"/>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D534" s="3"/>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D536" s="3"/>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D537" s="3"/>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D538" s="3"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D539" s="3"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D541" s="3"/>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D542" s="3"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D543" s="3"/>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D544" s="3"/>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D545" s="3"/>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D546" s="3"/>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D548" s="3"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D549" s="3"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D550" s="3"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D551" s="3"/>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D552" s="3"/>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D553" s="3"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D554" s="3"/>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D555" s="3"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D556" s="3"/>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D557" s="3"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D558" s="3"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D559" s="3"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D560" s="3"/>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D561" s="3"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D562" s="3"/>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D563" s="3"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D565" s="3"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="4:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D566" s="3"/>
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O510">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O510">
     <sortCondition ref="B2:B510"/>
     <sortCondition ref="E2:E510"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O234" r:id="rId1"/>
-    <hyperlink ref="O235" r:id="rId2"/>
-    <hyperlink ref="O236" r:id="rId3"/>
-    <hyperlink ref="O237" r:id="rId4"/>
-    <hyperlink ref="O238" r:id="rId5"/>
-    <hyperlink ref="O239" r:id="rId6"/>
-    <hyperlink ref="O341" r:id="rId7"/>
-    <hyperlink ref="O158" r:id="rId8"/>
-    <hyperlink ref="O159" r:id="rId9"/>
-    <hyperlink ref="O252" r:id="rId10"/>
-    <hyperlink ref="O253" r:id="rId11"/>
-    <hyperlink ref="O254" r:id="rId12"/>
-    <hyperlink ref="O342" r:id="rId13"/>
-    <hyperlink ref="O160" r:id="rId14"/>
-    <hyperlink ref="O240" r:id="rId15"/>
-    <hyperlink ref="O241" r:id="rId16"/>
-    <hyperlink ref="O242" r:id="rId17"/>
-    <hyperlink ref="O243" r:id="rId18"/>
-    <hyperlink ref="O244" r:id="rId19"/>
-    <hyperlink ref="O245" r:id="rId20"/>
-    <hyperlink ref="O165" r:id="rId21"/>
-    <hyperlink ref="O60" r:id="rId22"/>
-    <hyperlink ref="O61" r:id="rId23"/>
-    <hyperlink ref="O113" r:id="rId24"/>
-    <hyperlink ref="O114" r:id="rId25"/>
-    <hyperlink ref="O115" r:id="rId26"/>
-    <hyperlink ref="O116" r:id="rId27"/>
-    <hyperlink ref="O272" r:id="rId28"/>
-    <hyperlink ref="O134" r:id="rId29"/>
-    <hyperlink ref="O91" r:id="rId30"/>
-    <hyperlink ref="O223" r:id="rId31"/>
-    <hyperlink ref="O499" r:id="rId32"/>
-    <hyperlink ref="O500" r:id="rId33"/>
-    <hyperlink ref="O501" r:id="rId34"/>
-    <hyperlink ref="O502" r:id="rId35"/>
-    <hyperlink ref="O503" r:id="rId36"/>
-    <hyperlink ref="O504" r:id="rId37"/>
-    <hyperlink ref="O505" r:id="rId38"/>
-    <hyperlink ref="O506" r:id="rId39"/>
-    <hyperlink ref="O507" r:id="rId40"/>
-    <hyperlink ref="O508" r:id="rId41"/>
-    <hyperlink ref="O495" r:id="rId42"/>
-    <hyperlink ref="O496" r:id="rId43"/>
-    <hyperlink ref="O497" r:id="rId44"/>
-    <hyperlink ref="O491" r:id="rId45"/>
-    <hyperlink ref="O492" r:id="rId46"/>
-    <hyperlink ref="O493" r:id="rId47"/>
-    <hyperlink ref="O494" r:id="rId48"/>
-    <hyperlink ref="O509" r:id="rId49"/>
-    <hyperlink ref="O510" r:id="rId50"/>
-    <hyperlink ref="O511" r:id="rId51"/>
+    <hyperlink ref="O234" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O235" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O236" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O237" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O238" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O239" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O341" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O158" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O159" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O252" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O253" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O254" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O342" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O160" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O240" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O241" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O242" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O243" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O244" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="O245" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O165" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="O60" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O61" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O113" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O114" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="O115" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O116" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="O272" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="O134" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="O91" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O223" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O499" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="O500" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="O501" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="O502" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O503" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="O504" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="O505" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="O506" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O507" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O508" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O495" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O496" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O497" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="O491" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="O492" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="O493" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O494" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="O509" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="O510" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="O511" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
